--- a/data/fake_users_test_processed_with_prediction.xlsx
+++ b/data/fake_users_test_processed_with_prediction.xlsx
@@ -525,10 +525,10 @@
         <v>0.0625</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9999991739972881</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.260027118533753e-07</v>
       </c>
     </row>
     <row r="3">
@@ -566,10 +566,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9996219257544171</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0003780742455829047</v>
       </c>
     </row>
     <row r="4">
@@ -607,10 +607,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.9999906101691385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.389830861511081e-06</v>
       </c>
     </row>
     <row r="5">
@@ -648,10 +648,10 @@
         <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9999743411065123</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.565889348775455e-05</v>
       </c>
     </row>
     <row r="6">
@@ -689,10 +689,10 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.9999498350681747</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5.016493182531467e-05</v>
       </c>
     </row>
     <row r="7">
@@ -730,10 +730,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.9999824438502763</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.755614972362806e-05</v>
       </c>
     </row>
     <row r="8">
@@ -771,10 +771,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.9999798168788849</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.018312111509818e-05</v>
       </c>
     </row>
     <row r="9">
@@ -812,10 +812,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.9999530067581754</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.699324182456667e-05</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +853,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999845345497759</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.546545022416798e-05</v>
       </c>
     </row>
     <row r="11">
@@ -894,10 +894,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.9999378641912958</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6.21358087042017e-05</v>
       </c>
     </row>
     <row r="12">
@@ -935,10 +935,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.9999114873541682</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8.851264583171506e-05</v>
       </c>
     </row>
     <row r="13">
@@ -976,10 +976,10 @@
         <v>0.15</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.9999915981929123</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.401807087758572e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1017,10 +1017,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.9997916736815317</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0002083263184683799</v>
       </c>
     </row>
     <row r="15">
@@ -1058,10 +1058,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.9999727492710476</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.725072895233018e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1099,10 +1099,10 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.999630038750813</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.0003699612491870144</v>
       </c>
     </row>
     <row r="17">
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.9999989729979419</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.027002058026806e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1181,10 +1181,10 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.9999757637560639</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.423624393611322e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1222,10 +1222,10 @@
         <v>0.3125</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.9999211998868887</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7.880011311131081e-05</v>
       </c>
     </row>
     <row r="20">
@@ -1263,10 +1263,10 @@
         <v>0.3809523809523809</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.999587501464909</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0004124985350909691</v>
       </c>
     </row>
     <row r="21">
@@ -1304,10 +1304,10 @@
         <v>0.15</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.9998874824693277</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0001125175306723644</v>
       </c>
     </row>
     <row r="22">
@@ -1345,10 +1345,10 @@
         <v>0.391304347826087</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.095746179153757e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.9999979042538208</v>
       </c>
     </row>
     <row r="23">
@@ -1386,10 +1386,10 @@
         <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.9995939363469595</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0004060636530405241</v>
       </c>
     </row>
     <row r="24">
@@ -1427,10 +1427,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.9999752985140288</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.470148597116986e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1468,10 +1468,10 @@
         <v>0.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.9999160161212279</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.398387877210024e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1509,10 +1509,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.9997653583676827</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0002346416323173739</v>
       </c>
     </row>
     <row r="27">
@@ -1550,10 +1550,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.9995568387031968</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0004431612968032443</v>
       </c>
     </row>
     <row r="28">
@@ -1591,10 +1591,10 @@
         <v>0.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.9999265505829875</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>7.34494170124415e-05</v>
       </c>
     </row>
     <row r="29">
@@ -1632,10 +1632,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0.9999889223860446</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.107761395540507e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1673,10 +1673,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.9999503000764044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4.969992359558756e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1714,10 +1714,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0.999961242110578</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.875788942195974e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1755,10 +1755,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.9999955438519601</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4.456148039845456e-06</v>
       </c>
     </row>
     <row r="33">
@@ -1796,10 +1796,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0.9999811919535539</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.880804644606409e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1837,10 +1837,10 @@
         <v>0.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.9997757540312654</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0002242459687346033</v>
       </c>
     </row>
     <row r="35">
@@ -1878,10 +1878,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.9999581860084812</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.181399151876684e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1919,10 +1919,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.9999933442552281</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.655744771858841e-06</v>
       </c>
     </row>
     <row r="37">
@@ -1960,10 +1960,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.999989041941631</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.095805836905958e-05</v>
       </c>
     </row>
     <row r="38">
@@ -2001,10 +2001,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0.9999875290062811</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.247099371895851e-05</v>
       </c>
     </row>
     <row r="39">
@@ -2042,10 +2042,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.9999128397611032</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>8.716023889676751e-05</v>
       </c>
     </row>
     <row r="40">
@@ -2083,10 +2083,10 @@
         <v>0.0625</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0.9999907827863863</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>9.217213613636999e-06</v>
       </c>
     </row>
     <row r="41">
@@ -2124,10 +2124,10 @@
         <v>0.125</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0.999922452856036</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.754714396406801e-05</v>
       </c>
     </row>
     <row r="42">
@@ -2165,10 +2165,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.999999175826657</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>8.241733430650727e-07</v>
       </c>
     </row>
     <row r="43">
@@ -2206,10 +2206,10 @@
         <v>0.3</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0.9999575510553484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.244894465151813e-05</v>
       </c>
     </row>
     <row r="44">
@@ -2247,10 +2247,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.9999992667231729</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.332768271511606e-07</v>
       </c>
     </row>
     <row r="45">
@@ -2288,10 +2288,10 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.215078161187488e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.9999878492183881</v>
       </c>
     </row>
     <row r="46">
@@ -2329,10 +2329,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0.9999361517121831</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>6.384828781690477e-05</v>
       </c>
     </row>
     <row r="47">
@@ -2370,10 +2370,10 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0.9999905637305639</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>9.436269436093871e-06</v>
       </c>
     </row>
     <row r="48">
@@ -2411,10 +2411,10 @@
         <v>0.35</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0.9999378261239732</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>6.217387602678379e-05</v>
       </c>
     </row>
     <row r="49">
@@ -2452,10 +2452,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0.99981249861459</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0001875013854100206</v>
       </c>
     </row>
     <row r="50">
@@ -2493,10 +2493,10 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0.9999922583997664</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>7.741600233599927e-06</v>
       </c>
     </row>
     <row r="51">
@@ -2534,10 +2534,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.9999850539553876</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1.494604461236119e-05</v>
       </c>
     </row>
     <row r="52">
@@ -2575,10 +2575,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.9999545221586549</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>4.547784134517368e-05</v>
       </c>
     </row>
     <row r="53">
@@ -2616,10 +2616,10 @@
         <v>0.125</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.999932973739076</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>6.702626092401885e-05</v>
       </c>
     </row>
     <row r="54">
@@ -2657,10 +2657,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0.9999816273313232</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.837266867671517e-05</v>
       </c>
     </row>
     <row r="55">
@@ -2698,10 +2698,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0.9999894251264464</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1.057487355359419e-05</v>
       </c>
     </row>
     <row r="56">
@@ -2739,10 +2739,10 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0.9999786682711427</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2.133172885728322e-05</v>
       </c>
     </row>
     <row r="57">
@@ -2780,10 +2780,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0.9999989402717128</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1.059728287211125e-06</v>
       </c>
     </row>
     <row r="58">
@@ -2821,10 +2821,10 @@
         <v>0.25</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0.9999775597802811</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2.244021971886873e-05</v>
       </c>
     </row>
     <row r="59">
@@ -2862,10 +2862,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0.9999525923090009</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4.740769099913163e-05</v>
       </c>
     </row>
     <row r="60">
@@ -2903,10 +2903,10 @@
         <v>0.125</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.9999983603242493</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1.639675750739278e-06</v>
       </c>
     </row>
     <row r="61">
@@ -2944,10 +2944,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0.9998631024922376</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>0.0001368975077623127</v>
       </c>
     </row>
     <row r="62">
@@ -2985,10 +2985,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0.99999696673518</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>3.033264819966151e-06</v>
       </c>
     </row>
     <row r="63">
@@ -3026,10 +3026,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0.9976011442547599</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.002398855745240091</v>
       </c>
     </row>
     <row r="64">
@@ -3067,10 +3067,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0.9998713264207585</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.0001286735792415173</v>
       </c>
     </row>
     <row r="65">
@@ -3108,10 +3108,10 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0.9998089268963901</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.0001910731036098922</v>
       </c>
     </row>
     <row r="66">
@@ -3149,10 +3149,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0.9999948400659632</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>5.159934036808081e-06</v>
       </c>
     </row>
     <row r="67">
@@ -3190,10 +3190,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.9999486873257498</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>5.131267425019583e-05</v>
       </c>
     </row>
     <row r="68">
@@ -3231,10 +3231,10 @@
         <v>0.4</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0.9999516217439932</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>4.837825600683551e-05</v>
       </c>
     </row>
     <row r="69">
@@ -3272,10 +3272,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0.9999375411669889</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>6.245883301111524e-05</v>
       </c>
     </row>
     <row r="70">
@@ -3313,10 +3313,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0.9999945493724297</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>5.450627570283911e-06</v>
       </c>
     </row>
     <row r="71">
@@ -3354,10 +3354,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0.9999960517673617</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>3.9482326383146e-06</v>
       </c>
     </row>
     <row r="72">
@@ -3395,10 +3395,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0.99996621219765</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>3.378780234997268e-05</v>
       </c>
     </row>
     <row r="73">
@@ -3436,10 +3436,10 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0.9999927545323436</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>7.245467656361728e-06</v>
       </c>
     </row>
     <row r="74">
@@ -3477,10 +3477,10 @@
         <v>0.4146341463414634</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1.667866457610856e-06</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.9999983321335424</v>
       </c>
     </row>
     <row r="75">
@@ -3518,10 +3518,10 @@
         <v>0.25</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0.9999629733259183</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>3.702667408163837e-05</v>
       </c>
     </row>
     <row r="76">
@@ -3559,10 +3559,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0.9999819993768849</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1.800062311511148e-05</v>
       </c>
     </row>
     <row r="77">
@@ -3600,10 +3600,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0.9999438610222612</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>5.613897773886294e-05</v>
       </c>
     </row>
     <row r="78">
@@ -3641,10 +3641,10 @@
         <v>0.4</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0.9999602636048258</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>3.97363951741431e-05</v>
       </c>
     </row>
     <row r="79">
@@ -3682,10 +3682,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0.9999767782304979</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2.322176950214342e-05</v>
       </c>
     </row>
     <row r="80">
@@ -3723,10 +3723,10 @@
         <v>0.6</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>6.400422098762348e-06</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.9999935995779012</v>
       </c>
     </row>
     <row r="81">
@@ -3764,10 +3764,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0.999998682434197</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1.317565803027213e-06</v>
       </c>
     </row>
     <row r="82">
@@ -3805,10 +3805,10 @@
         <v>0.2</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0.9999802282001302</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1.977179986979928e-05</v>
       </c>
     </row>
     <row r="83">
@@ -3846,10 +3846,10 @@
         <v>0.1875</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0.9999943495618189</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>5.650438181133267e-06</v>
       </c>
     </row>
     <row r="84">
@@ -3887,10 +3887,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0.9999555244101043</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>4.447558989569051e-05</v>
       </c>
     </row>
     <row r="85">
@@ -3928,10 +3928,10 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0.9999834644702023</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1.653552979773168e-05</v>
       </c>
     </row>
     <row r="86">
@@ -3969,10 +3969,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0.9999843421971115</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1.565780288847999e-05</v>
       </c>
     </row>
     <row r="87">
@@ -4010,10 +4010,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0.99981249861459</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>0.0001875013854100206</v>
       </c>
     </row>
     <row r="88">
@@ -4051,10 +4051,10 @@
         <v>0.1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0.999961625572694</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>3.837442730605433e-05</v>
       </c>
     </row>
     <row r="89">
@@ -4092,10 +4092,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0.9999857933027525</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1.420669724746631e-05</v>
       </c>
     </row>
     <row r="90">
@@ -4133,10 +4133,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0.9999833598176125</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1.664018238742846e-05</v>
       </c>
     </row>
     <row r="91">
@@ -4174,10 +4174,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2.95754872270404e-06</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0.9999970424512773</v>
       </c>
     </row>
     <row r="92">
@@ -4215,10 +4215,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0.9998230344561908</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>0.0001769655438092145</v>
       </c>
     </row>
     <row r="93">
@@ -4256,10 +4256,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.9999983506359188</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1.649364081245769e-06</v>
       </c>
     </row>
     <row r="94">
@@ -4297,10 +4297,10 @@
         <v>0.1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.9999336005166988</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>6.639948330117294e-05</v>
       </c>
     </row>
     <row r="95">
@@ -4338,10 +4338,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0.9999959172304924</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4.082769507583024e-06</v>
       </c>
     </row>
     <row r="96">
@@ -4379,10 +4379,10 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>7.012338635314919e-07</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.9999992987661365</v>
       </c>
     </row>
     <row r="97">
@@ -4420,10 +4420,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0.9997000053890229</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.0002999946109770353</v>
       </c>
     </row>
     <row r="98">
@@ -4461,10 +4461,10 @@
         <v>0.2</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0.9999644824601963</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>3.551753980368869e-05</v>
       </c>
     </row>
     <row r="99">
@@ -4502,10 +4502,10 @@
         <v>0.1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0.9999656227696523</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>3.43772303477026e-05</v>
       </c>
     </row>
     <row r="100">
@@ -4543,10 +4543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0.9999044296350651</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>9.557036493495215e-05</v>
       </c>
     </row>
     <row r="101">
@@ -4584,10 +4584,10 @@
         <v>0.2</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0.9999524145789868</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>4.758542101320618e-05</v>
       </c>
     </row>
     <row r="102">
@@ -4625,10 +4625,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0.9999992340847869</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>7.659152131324258e-07</v>
       </c>
     </row>
     <row r="103">
@@ -4666,10 +4666,10 @@
         <v>0.4081632653061225</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>4.633683581278802e-07</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0.9999995366316419</v>
       </c>
     </row>
     <row r="104">
@@ -4707,10 +4707,10 @@
         <v>0.4375</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0.9999118904740544</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>8.810952594562553e-05</v>
       </c>
     </row>
     <row r="105">
@@ -4748,10 +4748,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0.9999959317399952</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>4.068260004808675e-06</v>
       </c>
     </row>
     <row r="106">
@@ -4789,10 +4789,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0.9999039145597908</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>9.608544020923849e-05</v>
       </c>
     </row>
     <row r="107">
@@ -4830,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0.9999988523885772</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1.147611422743415e-06</v>
       </c>
     </row>
     <row r="108">
@@ -4871,10 +4871,10 @@
         <v>0.25</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0.999950630252036</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>4.936974796399897e-05</v>
       </c>
     </row>
     <row r="109">
@@ -4912,10 +4912,10 @@
         <v>0.1875</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0.9999985653475501</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>1.434652449899664e-06</v>
       </c>
     </row>
     <row r="110">
@@ -4953,10 +4953,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0.9992957654713905</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>0.0007042345286094863</v>
       </c>
     </row>
     <row r="111">
@@ -4994,10 +4994,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0.9997153833534137</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>0.0002846166465863098</v>
       </c>
     </row>
     <row r="112">
@@ -5035,10 +5035,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0.9998853591703482</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>0.0001146408296518509</v>
       </c>
     </row>
     <row r="113">
@@ -5076,10 +5076,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0.9999359814452866</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>6.401855471342078e-05</v>
       </c>
     </row>
     <row r="114">
@@ -5117,10 +5117,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0.9999909517001813</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>9.048299818791034e-06</v>
       </c>
     </row>
     <row r="115">
@@ -5158,10 +5158,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0.9999876113111992</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1.238868880086024e-05</v>
       </c>
     </row>
     <row r="116">
@@ -5199,10 +5199,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0.9999624694653124</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>3.753053468760421e-05</v>
       </c>
     </row>
     <row r="117">
@@ -5240,10 +5240,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0.9999849183089888</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1.508169101115574e-05</v>
       </c>
     </row>
     <row r="118">
@@ -5281,10 +5281,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0.9999969840811517</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>3.015918848378077e-06</v>
       </c>
     </row>
     <row r="119">
@@ -5322,10 +5322,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0.999989321859818</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1.067814018195853e-05</v>
       </c>
     </row>
     <row r="120">
@@ -5363,10 +5363,10 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0.9973538450214663</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>0.00264615497853376</v>
       </c>
     </row>
     <row r="121">
@@ -5404,10 +5404,10 @@
         <v>0.125</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0.9999899687044985</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>1.003129550148004e-05</v>
       </c>
     </row>
     <row r="122">
@@ -5445,10 +5445,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0.9999149921919286</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>8.500780807143524e-05</v>
       </c>
     </row>
     <row r="123">
@@ -5486,10 +5486,10 @@
         <v>0.3809523809523809</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0.9976834239006509</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>0.002316576099349083</v>
       </c>
     </row>
     <row r="124">
@@ -5527,10 +5527,10 @@
         <v>0.125</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0.9999963632839705</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>3.636716029570995e-06</v>
       </c>
     </row>
     <row r="125">
@@ -5568,10 +5568,10 @@
         <v>0.375</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0.9999843353023434</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1.566469765661061e-05</v>
       </c>
     </row>
     <row r="126">
@@ -5609,10 +5609,10 @@
         <v>0.375</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0.9999799864865319</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>2.001351346816441e-05</v>
       </c>
     </row>
     <row r="127">
@@ -5650,10 +5650,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>3.869259747379949e-06</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.9999961307402526</v>
       </c>
     </row>
     <row r="128">
@@ -5691,10 +5691,10 @@
         <v>0.2</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0.9999954183027836</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>4.581697216383606e-06</v>
       </c>
     </row>
     <row r="129">
@@ -5732,10 +5732,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0.9999873172296623</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1.268277033771172e-05</v>
       </c>
     </row>
     <row r="130">
@@ -5773,10 +5773,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0.9999765218915734</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2.347810842666138e-05</v>
       </c>
     </row>
     <row r="131">
@@ -5814,10 +5814,10 @@
         <v>0.1</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0.9999993898373126</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>6.101626873430943e-07</v>
       </c>
     </row>
     <row r="132">
@@ -5855,10 +5855,10 @@
         <v>0.125</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0.9999800922884459</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>1.990771155413952e-05</v>
       </c>
     </row>
     <row r="133">
@@ -5896,10 +5896,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0.9999290372034103</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>7.096279658967945e-05</v>
       </c>
     </row>
     <row r="134">
@@ -5937,10 +5937,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>7.251455576229304e-06</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>0.9999927485444238</v>
       </c>
     </row>
     <row r="135">
@@ -5978,10 +5978,10 @@
         <v>0.2</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0.9999524145789868</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>4.758542101320618e-05</v>
       </c>
     </row>
     <row r="136">
@@ -6019,10 +6019,10 @@
         <v>0.25</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0.9999936835406672</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>6.316459332833909e-06</v>
       </c>
     </row>
     <row r="137">
@@ -6060,10 +6060,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0.9999961881774595</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>3.811822540498246e-06</v>
       </c>
     </row>
     <row r="138">
@@ -6101,10 +6101,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0.9999849183089888</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1.508169101115574e-05</v>
       </c>
     </row>
     <row r="139">
@@ -6142,10 +6142,10 @@
         <v>0.15</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0.9999860028427247</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1.399715727535263e-05</v>
       </c>
     </row>
     <row r="140">
@@ -6183,10 +6183,10 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>0.9999831939557267</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1.680604427339567e-05</v>
       </c>
     </row>
     <row r="141">
@@ -6224,10 +6224,10 @@
         <v>0.25</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0.9999870313025567</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1.296869744322438e-05</v>
       </c>
     </row>
     <row r="142">
@@ -6265,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0.999998954209805</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1.045790194993732e-06</v>
       </c>
     </row>
     <row r="143">
@@ -6306,10 +6306,10 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0.999944900320771</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>5.509967922906172e-05</v>
       </c>
     </row>
     <row r="144">
@@ -6347,10 +6347,10 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0.9999397551868986</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>6.024481310137439e-05</v>
       </c>
     </row>
     <row r="145">
@@ -6388,10 +6388,10 @@
         <v>0.125</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0.999998716621028</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1.283378971980037e-06</v>
       </c>
     </row>
     <row r="146">
@@ -6429,10 +6429,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0.9979794735101571</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>0.002020526489842849</v>
       </c>
     </row>
     <row r="147">
@@ -6470,10 +6470,10 @@
         <v>0.125</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0.9999963632839705</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>3.636716029570995e-06</v>
       </c>
     </row>
     <row r="148">
@@ -6511,10 +6511,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>0.0002699333310406393</v>
       </c>
       <c r="K148" t="n">
-        <v>1</v>
+        <v>0.9997300666689594</v>
       </c>
     </row>
     <row r="149">
@@ -6552,10 +6552,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0.9999957667117498</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>4.233288250128258e-06</v>
       </c>
     </row>
     <row r="150">
@@ -6593,10 +6593,10 @@
         <v>0.1875</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0.9999963623777992</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>3.637622200759087e-06</v>
       </c>
     </row>
     <row r="151">
@@ -6634,10 +6634,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>0.9996518948573181</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>0.0003481051426818666</v>
       </c>
     </row>
     <row r="152">
@@ -6675,10 +6675,10 @@
         <v>0.1875</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0.9994146473579387</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>0.0005853526420612264</v>
       </c>
     </row>
     <row r="153">
@@ -6716,10 +6716,10 @@
         <v>0.2</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0.9999935535216663</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>6.446478333646746e-06</v>
       </c>
     </row>
   </sheetData>
